--- a/data/pca/factorExposure/factorExposure_2009-08-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01771505988973568</v>
+        <v>0.01686539807074752</v>
       </c>
       <c r="C2">
-        <v>-0.001519561383642724</v>
+        <v>-0.0009300545174981534</v>
       </c>
       <c r="D2">
-        <v>-0.003808967183449731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009515395996091398</v>
+      </c>
+      <c r="E2">
+        <v>0.002246610448490866</v>
+      </c>
+      <c r="F2">
+        <v>0.01320460891488082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09534081621704744</v>
+        <v>0.09376534233382228</v>
       </c>
       <c r="C4">
-        <v>-0.02112432221193224</v>
+        <v>-0.01471059351562671</v>
       </c>
       <c r="D4">
-        <v>-0.06602467686441425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08371131288340877</v>
+      </c>
+      <c r="E4">
+        <v>0.02879103967690605</v>
+      </c>
+      <c r="F4">
+        <v>-0.03303520915622113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1490931913916941</v>
+        <v>0.1593549566508985</v>
       </c>
       <c r="C6">
-        <v>-0.02721602415045013</v>
+        <v>-0.02705943113126419</v>
       </c>
       <c r="D6">
-        <v>0.02524339015281213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02522183131703618</v>
+      </c>
+      <c r="E6">
+        <v>0.009011518352687658</v>
+      </c>
+      <c r="F6">
+        <v>-0.04164192133457487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06382094360134172</v>
+        <v>0.06353074513861895</v>
       </c>
       <c r="C7">
-        <v>-0.003127707078064386</v>
+        <v>0.001688663378050572</v>
       </c>
       <c r="D7">
-        <v>-0.03939290480740076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05242688614122439</v>
+      </c>
+      <c r="E7">
+        <v>0.01199526754659873</v>
+      </c>
+      <c r="F7">
+        <v>-0.04682777828218408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06352364875143698</v>
+        <v>0.05782421017802349</v>
       </c>
       <c r="C8">
-        <v>0.009698568589287592</v>
+        <v>0.01310233869670976</v>
       </c>
       <c r="D8">
-        <v>-0.01787762454241016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03184229791936592</v>
+      </c>
+      <c r="E8">
+        <v>0.01766618778367494</v>
+      </c>
+      <c r="F8">
+        <v>0.02597956806577846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07339121051756264</v>
+        <v>0.07068690802543845</v>
       </c>
       <c r="C9">
-        <v>-0.01737634174499068</v>
+        <v>-0.01028496837828203</v>
       </c>
       <c r="D9">
-        <v>-0.06835145173698665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08717260094900181</v>
+      </c>
+      <c r="E9">
+        <v>0.02385479332599694</v>
+      </c>
+      <c r="F9">
+        <v>-0.0470866190147972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0827651431872624</v>
+        <v>0.09032465372017992</v>
       </c>
       <c r="C10">
-        <v>-0.0120527767711477</v>
+        <v>-0.0207075248363254</v>
       </c>
       <c r="D10">
-        <v>0.1666425839599363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.162907790761119</v>
+      </c>
+      <c r="E10">
+        <v>-0.03206303409815892</v>
+      </c>
+      <c r="F10">
+        <v>0.05734110085900623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09297444734655079</v>
+        <v>0.08829540427719199</v>
       </c>
       <c r="C11">
-        <v>-0.01841426833618406</v>
+        <v>-0.01043404172725298</v>
       </c>
       <c r="D11">
-        <v>-0.09546158438825927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169388683783619</v>
+      </c>
+      <c r="E11">
+        <v>0.04634325744717241</v>
+      </c>
+      <c r="F11">
+        <v>-0.0231665999690274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09905716323313604</v>
+        <v>0.09163815883477767</v>
       </c>
       <c r="C12">
-        <v>-0.01616535714517374</v>
+        <v>-0.007749781181155985</v>
       </c>
       <c r="D12">
-        <v>-0.09884794249417704</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316725032896583</v>
+      </c>
+      <c r="E12">
+        <v>0.04572002223046327</v>
+      </c>
+      <c r="F12">
+        <v>-0.03130207469425195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04400872908214927</v>
+        <v>0.04103943353825725</v>
       </c>
       <c r="C13">
-        <v>-0.00610801035355807</v>
+        <v>-0.002366896713886074</v>
       </c>
       <c r="D13">
-        <v>-0.03013581742527583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05354318288000465</v>
+      </c>
+      <c r="E13">
+        <v>-0.004040266821189417</v>
+      </c>
+      <c r="F13">
+        <v>-0.001006755059147813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01996964553710787</v>
+        <v>0.02417792497213377</v>
       </c>
       <c r="C14">
-        <v>-0.01542636820574436</v>
+        <v>-0.01385517313758427</v>
       </c>
       <c r="D14">
-        <v>-0.0241351672712784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03370048565978698</v>
+      </c>
+      <c r="E14">
+        <v>0.01906205593045444</v>
+      </c>
+      <c r="F14">
+        <v>-0.01420983010901378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03487393415394829</v>
+        <v>0.03304127892988134</v>
       </c>
       <c r="C15">
-        <v>-0.00802791938214599</v>
+        <v>-0.004707433411632807</v>
       </c>
       <c r="D15">
-        <v>-0.02938640125919935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0450430681487459</v>
+      </c>
+      <c r="E15">
+        <v>0.005903014149124249</v>
+      </c>
+      <c r="F15">
+        <v>-0.02551738102162744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07864325045993505</v>
+        <v>0.07421770755884073</v>
       </c>
       <c r="C16">
-        <v>-0.008890319533642964</v>
+        <v>-0.000994901767136077</v>
       </c>
       <c r="D16">
-        <v>-0.09801748723587655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1272908662382439</v>
+      </c>
+      <c r="E16">
+        <v>0.06040998735790865</v>
+      </c>
+      <c r="F16">
+        <v>-0.02768846697705907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0008241912503413402</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002122951045030169</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001613102685186781</v>
+      </c>
+      <c r="E17">
+        <v>0.0009802673973709221</v>
+      </c>
+      <c r="F17">
+        <v>0.002340452325280107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01737229378958963</v>
+        <v>0.03678149802902896</v>
       </c>
       <c r="C18">
-        <v>0.003119625070997691</v>
+        <v>0.002888931268940245</v>
       </c>
       <c r="D18">
-        <v>-0.02999324308223147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01541494148904672</v>
+      </c>
+      <c r="E18">
+        <v>-0.008823360712939638</v>
+      </c>
+      <c r="F18">
+        <v>0.008639540826669198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06601512093664835</v>
+        <v>0.0623256670922881</v>
       </c>
       <c r="C20">
-        <v>-0.006818739345513726</v>
+        <v>-0.0002087735762039833</v>
       </c>
       <c r="D20">
-        <v>-0.05031798191783948</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07696070068647938</v>
+      </c>
+      <c r="E20">
+        <v>0.05539054938835179</v>
+      </c>
+      <c r="F20">
+        <v>-0.03028963991943809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04072498436430518</v>
+        <v>0.04070772688829532</v>
       </c>
       <c r="C21">
-        <v>-0.01011062035469909</v>
+        <v>-0.006385851817678358</v>
       </c>
       <c r="D21">
-        <v>-0.02908098883223796</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03881151566033575</v>
+      </c>
+      <c r="E21">
+        <v>-0.0004392468137524058</v>
+      </c>
+      <c r="F21">
+        <v>0.02380181745740457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04073971134646696</v>
+        <v>0.04321395627068764</v>
       </c>
       <c r="C22">
-        <v>-0.0007646232781907999</v>
+        <v>-0.0004898221534191485</v>
       </c>
       <c r="D22">
-        <v>0.01137016505825169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004085680154963464</v>
+      </c>
+      <c r="E22">
+        <v>0.03666785928964662</v>
+      </c>
+      <c r="F22">
+        <v>0.03876230316393434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04070309214502306</v>
+        <v>0.04318972107542673</v>
       </c>
       <c r="C23">
-        <v>-0.0007550203938868636</v>
+        <v>-0.0004813041063128847</v>
       </c>
       <c r="D23">
-        <v>0.01135084448913579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004101150185199475</v>
+      </c>
+      <c r="E23">
+        <v>0.03685071266250187</v>
+      </c>
+      <c r="F23">
+        <v>0.03872219316463692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08443438920708257</v>
+        <v>0.08012398869527582</v>
       </c>
       <c r="C24">
-        <v>-0.009471389749787253</v>
+        <v>-0.001770954457261807</v>
       </c>
       <c r="D24">
-        <v>-0.1027407711591615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1198474212161463</v>
+      </c>
+      <c r="E24">
+        <v>0.04846049553904479</v>
+      </c>
+      <c r="F24">
+        <v>-0.0297984807395852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08945978588779077</v>
+        <v>0.08471767667505598</v>
       </c>
       <c r="C25">
-        <v>-0.01186447708904324</v>
+        <v>-0.004276760752049172</v>
       </c>
       <c r="D25">
-        <v>-0.08911754533958827</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1093630292902133</v>
+      </c>
+      <c r="E25">
+        <v>0.0319041867913334</v>
+      </c>
+      <c r="F25">
+        <v>-0.02671873979528768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05860911113346898</v>
+        <v>0.05895011146855977</v>
       </c>
       <c r="C26">
-        <v>-0.01828197661058457</v>
+        <v>-0.01449724624250517</v>
       </c>
       <c r="D26">
-        <v>-0.01756659966755619</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04227207415509922</v>
+      </c>
+      <c r="E26">
+        <v>0.02965917206770802</v>
+      </c>
+      <c r="F26">
+        <v>0.005055169066268969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1304024136941392</v>
+        <v>0.1414267053834233</v>
       </c>
       <c r="C28">
-        <v>-0.01049637882794757</v>
+        <v>-0.02227174161164495</v>
       </c>
       <c r="D28">
-        <v>0.2720943612067157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2612479203162591</v>
+      </c>
+      <c r="E28">
+        <v>-0.06754370397327061</v>
+      </c>
+      <c r="F28">
+        <v>-0.003958948419126157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02630658674147812</v>
+        <v>0.02889173981636998</v>
       </c>
       <c r="C29">
-        <v>-0.01010363569332645</v>
+        <v>-0.008787393406681741</v>
       </c>
       <c r="D29">
-        <v>-0.02082604594688278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03126435704304424</v>
+      </c>
+      <c r="E29">
+        <v>0.01401084166865072</v>
+      </c>
+      <c r="F29">
+        <v>0.01247887307900393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06729909079055207</v>
+        <v>0.05917144551267706</v>
       </c>
       <c r="C30">
-        <v>-0.01064119687492865</v>
+        <v>-0.002710649197879513</v>
       </c>
       <c r="D30">
-        <v>-0.05958880003114849</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08777215160733365</v>
+      </c>
+      <c r="E30">
+        <v>0.01373504441064183</v>
+      </c>
+      <c r="F30">
+        <v>-0.08022321317543271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05103663463086672</v>
+        <v>0.05125862775206707</v>
       </c>
       <c r="C31">
-        <v>-0.01700390851823044</v>
+        <v>-0.01565846098749354</v>
       </c>
       <c r="D31">
-        <v>-0.02033366822632258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02443939520500465</v>
+      </c>
+      <c r="E31">
+        <v>0.02884512328542356</v>
+      </c>
+      <c r="F31">
+        <v>0.001016768176255388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04803231507041332</v>
+        <v>0.05166255785544301</v>
       </c>
       <c r="C32">
-        <v>-0.002343278688908917</v>
+        <v>0.001761439848173839</v>
       </c>
       <c r="D32">
-        <v>-0.01961720102973053</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03628739806965719</v>
+      </c>
+      <c r="E32">
+        <v>0.03460985084521039</v>
+      </c>
+      <c r="F32">
+        <v>-0.004490529090778029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09342453407918543</v>
+        <v>0.08876420289648329</v>
       </c>
       <c r="C33">
-        <v>-0.01457259921699354</v>
+        <v>-0.006520021797675041</v>
       </c>
       <c r="D33">
-        <v>-0.07662711994385059</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1028394386784472</v>
+      </c>
+      <c r="E33">
+        <v>0.044710042886906</v>
+      </c>
+      <c r="F33">
+        <v>-0.03964398646184666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07130328984252218</v>
+        <v>0.06821355723605745</v>
       </c>
       <c r="C34">
-        <v>-0.01653895392889379</v>
+        <v>-0.01008960900605579</v>
       </c>
       <c r="D34">
-        <v>-0.08378161433431801</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1100066954678892</v>
+      </c>
+      <c r="E34">
+        <v>0.03511274586151485</v>
+      </c>
+      <c r="F34">
+        <v>-0.03326672399915044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02395167241088478</v>
+        <v>0.02545547561972348</v>
       </c>
       <c r="C35">
-        <v>-0.002953157491696927</v>
+        <v>-0.002591418101920548</v>
       </c>
       <c r="D35">
-        <v>-0.006558671523430937</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01204449687593134</v>
+      </c>
+      <c r="E35">
+        <v>0.01266138449109737</v>
+      </c>
+      <c r="F35">
+        <v>-0.001657386126406451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02708733053263256</v>
+        <v>0.02760056666496005</v>
       </c>
       <c r="C36">
-        <v>-0.008106741910636707</v>
+        <v>-0.006857107597811733</v>
       </c>
       <c r="D36">
-        <v>-0.03876062297349457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03981117281823053</v>
+      </c>
+      <c r="E36">
+        <v>0.01678185365456181</v>
+      </c>
+      <c r="F36">
+        <v>-0.01532090847010249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0001185588943472302</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005350138105878901</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002070514285357376</v>
+      </c>
+      <c r="E37">
+        <v>-0.0007918957394054736</v>
+      </c>
+      <c r="F37">
+        <v>0.001642387171105189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1171338664315196</v>
+        <v>0.1041939884476997</v>
       </c>
       <c r="C39">
-        <v>-0.02500226450324841</v>
+        <v>-0.01571058903131166</v>
       </c>
       <c r="D39">
-        <v>-0.139141040680622</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1539167797014489</v>
+      </c>
+      <c r="E39">
+        <v>0.05905281650157637</v>
+      </c>
+      <c r="F39">
+        <v>-0.0308411487624921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04041472729372823</v>
+        <v>0.04162044416309234</v>
       </c>
       <c r="C40">
-        <v>-0.0102948678504459</v>
+        <v>-0.0071907267848064</v>
       </c>
       <c r="D40">
-        <v>-0.006747947146474902</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0300894705052562</v>
+      </c>
+      <c r="E40">
+        <v>0.000928808599792959</v>
+      </c>
+      <c r="F40">
+        <v>0.01898929882659319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02545539607293108</v>
+        <v>0.02770413426111763</v>
       </c>
       <c r="C41">
-        <v>-0.007190354064439266</v>
+        <v>-0.006821640542332241</v>
       </c>
       <c r="D41">
-        <v>-0.009604484556733158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01082397709526327</v>
+      </c>
+      <c r="E41">
+        <v>0.01228589518907979</v>
+      </c>
+      <c r="F41">
+        <v>0.005617601654021494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04218070321198224</v>
+        <v>0.04108656931051518</v>
       </c>
       <c r="C43">
-        <v>-0.008520800176405141</v>
+        <v>-0.00714370858095464</v>
       </c>
       <c r="D43">
-        <v>-0.01266967060262985</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01871893904487345</v>
+      </c>
+      <c r="E43">
+        <v>0.02564171403147905</v>
+      </c>
+      <c r="F43">
+        <v>0.01291392061317343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07622497190340914</v>
+        <v>0.08004753462017863</v>
       </c>
       <c r="C44">
-        <v>-0.02751525105038657</v>
+        <v>-0.01935893960370936</v>
       </c>
       <c r="D44">
-        <v>-0.07745504528311627</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09781424758085401</v>
+      </c>
+      <c r="E44">
+        <v>0.06189037618285978</v>
+      </c>
+      <c r="F44">
+        <v>-0.1605482778573478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02069926255842393</v>
+        <v>0.02331598674114805</v>
       </c>
       <c r="C46">
-        <v>-0.003862622905354295</v>
+        <v>-0.003324856248367575</v>
       </c>
       <c r="D46">
-        <v>-0.005709475001412284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01281089905004867</v>
+      </c>
+      <c r="E46">
+        <v>0.02583375466120225</v>
+      </c>
+      <c r="F46">
+        <v>0.007073568331764807</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05336266770860557</v>
+        <v>0.05269767366809692</v>
       </c>
       <c r="C47">
-        <v>-0.004572856142629521</v>
+        <v>-0.0038350363106389</v>
       </c>
       <c r="D47">
-        <v>-0.007073260184270329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01154655865419526</v>
+      </c>
+      <c r="E47">
+        <v>0.02348965043522214</v>
+      </c>
+      <c r="F47">
+        <v>0.03257551660344284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04921860060407912</v>
+        <v>0.04995629032870143</v>
       </c>
       <c r="C48">
-        <v>-0.005303084605212035</v>
+        <v>-0.002138192490523387</v>
       </c>
       <c r="D48">
-        <v>-0.04080804549524612</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05074282607029847</v>
+      </c>
+      <c r="E48">
+        <v>-0.004893311702788283</v>
+      </c>
+      <c r="F48">
+        <v>-0.009865081664470598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.20116992483446</v>
+        <v>0.199671406789081</v>
       </c>
       <c r="C49">
-        <v>-0.02076040730932737</v>
+        <v>-0.01905353255815837</v>
       </c>
       <c r="D49">
-        <v>0.01730697373952521</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007376315253607161</v>
+      </c>
+      <c r="E49">
+        <v>0.02999799040119598</v>
+      </c>
+      <c r="F49">
+        <v>-0.04040876789956845</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05039190792185171</v>
+        <v>0.051683194928359</v>
       </c>
       <c r="C50">
-        <v>-0.0129842213212815</v>
+        <v>-0.01140286508379377</v>
       </c>
       <c r="D50">
-        <v>-0.01978801510995449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02373109367172789</v>
+      </c>
+      <c r="E50">
+        <v>0.03001866167842702</v>
+      </c>
+      <c r="F50">
+        <v>-0.009848792099146384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1553451526595649</v>
+        <v>0.1497390425584193</v>
       </c>
       <c r="C52">
-        <v>-0.01938753488530791</v>
+        <v>-0.01787023543951105</v>
       </c>
       <c r="D52">
-        <v>-0.05038642772735133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.040918504775065</v>
+      </c>
+      <c r="E52">
+        <v>0.02056760234586831</v>
+      </c>
+      <c r="F52">
+        <v>-0.04328454752148226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1727529955589724</v>
+        <v>0.1715438273632842</v>
       </c>
       <c r="C53">
-        <v>-0.01900864396353031</v>
+        <v>-0.02021553374106836</v>
       </c>
       <c r="D53">
-        <v>-0.01481952192837308</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003525309758315092</v>
+      </c>
+      <c r="E53">
+        <v>0.02810105022486916</v>
+      </c>
+      <c r="F53">
+        <v>-0.07280792534538673</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01800712270827472</v>
+        <v>0.02061093048034321</v>
       </c>
       <c r="C54">
-        <v>-0.01286096225092027</v>
+        <v>-0.01111676877811325</v>
       </c>
       <c r="D54">
-        <v>-0.02748762056784259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03480127095898374</v>
+      </c>
+      <c r="E54">
+        <v>0.02221690775346988</v>
+      </c>
+      <c r="F54">
+        <v>0.001780964215660059</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.11500560010536</v>
+        <v>0.1151048967850409</v>
       </c>
       <c r="C55">
-        <v>-0.01730752115562075</v>
+        <v>-0.01776926240054938</v>
       </c>
       <c r="D55">
-        <v>-0.0120818796088858</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006414325727522163</v>
+      </c>
+      <c r="E55">
+        <v>0.02330747166355404</v>
+      </c>
+      <c r="F55">
+        <v>-0.04667484695345613</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1785632577203392</v>
+        <v>0.1771209039624818</v>
       </c>
       <c r="C56">
-        <v>-0.01666615052582411</v>
+        <v>-0.01810110986255074</v>
       </c>
       <c r="D56">
-        <v>-0.01084084909916009</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003950028761682414</v>
+      </c>
+      <c r="E56">
+        <v>0.03170531073461003</v>
+      </c>
+      <c r="F56">
+        <v>-0.05304599893827634</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04940521589140708</v>
+        <v>0.04469193456535518</v>
       </c>
       <c r="C58">
-        <v>-0.005926868417598569</v>
+        <v>0.0004043509693752898</v>
       </c>
       <c r="D58">
-        <v>-0.05421135719247413</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07187987962643119</v>
+      </c>
+      <c r="E58">
+        <v>0.03279736061611988</v>
+      </c>
+      <c r="F58">
+        <v>0.03653541587340964</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1606961269464038</v>
+        <v>0.166767081364676</v>
       </c>
       <c r="C59">
-        <v>-0.01240420512140919</v>
+        <v>-0.02254300688542596</v>
       </c>
       <c r="D59">
-        <v>0.224555206952255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176193838707353</v>
+      </c>
+      <c r="E59">
+        <v>-0.04673914395171569</v>
+      </c>
+      <c r="F59">
+        <v>0.03449842804781095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2373733344899038</v>
+        <v>0.2318977094902755</v>
       </c>
       <c r="C60">
-        <v>-0.0008823454058550719</v>
+        <v>0.001888189420058278</v>
       </c>
       <c r="D60">
-        <v>-0.04623962294904139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03869046318399188</v>
+      </c>
+      <c r="E60">
+        <v>0.006396862499556271</v>
+      </c>
+      <c r="F60">
+        <v>0.0005364644029967133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08805673724946791</v>
+        <v>0.07994809704403599</v>
       </c>
       <c r="C61">
-        <v>-0.01869655670135952</v>
+        <v>-0.01121925545375007</v>
       </c>
       <c r="D61">
-        <v>-0.09759347200302115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1175813265266158</v>
+      </c>
+      <c r="E61">
+        <v>0.03904364118505646</v>
+      </c>
+      <c r="F61">
+        <v>-0.01355337428730375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1704475374812217</v>
+        <v>0.1692327623108465</v>
       </c>
       <c r="C62">
-        <v>-0.02083184616988825</v>
+        <v>-0.02090970795576974</v>
       </c>
       <c r="D62">
-        <v>-0.00713832477470316</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004713737319931895</v>
+      </c>
+      <c r="E62">
+        <v>0.03248657955696933</v>
+      </c>
+      <c r="F62">
+        <v>-0.03638963089445034</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04405286961133069</v>
+        <v>0.04586961428914611</v>
       </c>
       <c r="C63">
-        <v>-0.00643659700729094</v>
+        <v>-0.001737493845974691</v>
       </c>
       <c r="D63">
-        <v>-0.04283744884865306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05954489359609813</v>
+      </c>
+      <c r="E63">
+        <v>0.02406875567529331</v>
+      </c>
+      <c r="F63">
+        <v>-0.004206362209900589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1124048411653994</v>
+        <v>0.1105956188482735</v>
       </c>
       <c r="C64">
-        <v>-0.01481320549240175</v>
+        <v>-0.0113996107718978</v>
       </c>
       <c r="D64">
-        <v>-0.03208879791977592</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04331815251655589</v>
+      </c>
+      <c r="E64">
+        <v>0.02259903972168503</v>
+      </c>
+      <c r="F64">
+        <v>-0.02620300583730605</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1397050078848668</v>
+        <v>0.1509778637386725</v>
       </c>
       <c r="C65">
-        <v>-0.03282724084640599</v>
+        <v>-0.03435928936222644</v>
       </c>
       <c r="D65">
-        <v>0.0488914458799957</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04548915295402668</v>
+      </c>
+      <c r="E65">
+        <v>0.00447578861871609</v>
+      </c>
+      <c r="F65">
+        <v>-0.03593098228825467</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1400249491058264</v>
+        <v>0.1239399104640002</v>
       </c>
       <c r="C66">
-        <v>-0.02309739722581775</v>
+        <v>-0.01369337839454284</v>
       </c>
       <c r="D66">
-        <v>-0.1171289656418686</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1411565996753228</v>
+      </c>
+      <c r="E66">
+        <v>0.06405366375957236</v>
+      </c>
+      <c r="F66">
+        <v>-0.03442667757704646</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06412174640283018</v>
+        <v>0.05734702748724345</v>
       </c>
       <c r="C67">
-        <v>-0.005617175615322223</v>
+        <v>-0.002885670851647317</v>
       </c>
       <c r="D67">
-        <v>-0.05275556114235654</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05566561514441715</v>
+      </c>
+      <c r="E67">
+        <v>0.0165551207613792</v>
+      </c>
+      <c r="F67">
+        <v>0.02964317807882247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1039227028159311</v>
+        <v>0.115958972352294</v>
       </c>
       <c r="C68">
-        <v>-0.02073945622509057</v>
+        <v>-0.0330225355901226</v>
       </c>
       <c r="D68">
-        <v>0.2724490572086342</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2615930979703535</v>
+      </c>
+      <c r="E68">
+        <v>-0.08769041614107771</v>
+      </c>
+      <c r="F68">
+        <v>0.001590592011520817</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04022456324242883</v>
+        <v>0.03897295397384407</v>
       </c>
       <c r="C69">
-        <v>-0.001785571741720013</v>
+        <v>-0.001255842712658493</v>
       </c>
       <c r="D69">
-        <v>-0.007637876625244646</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007880351300023682</v>
+      </c>
+      <c r="E69">
+        <v>0.02340903551758049</v>
+      </c>
+      <c r="F69">
+        <v>-0.0008376659597869815</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06745071790518825</v>
+        <v>0.06671078000703856</v>
       </c>
       <c r="C70">
-        <v>0.02378386168521938</v>
+        <v>0.02734810120781098</v>
       </c>
       <c r="D70">
-        <v>0.01507923964784083</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0243685623442091</v>
+      </c>
+      <c r="E70">
+        <v>-0.03073960904422493</v>
+      </c>
+      <c r="F70">
+        <v>0.1790691478027618</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1218478064827472</v>
+        <v>0.1357393501824695</v>
       </c>
       <c r="C71">
-        <v>-0.02413935881718015</v>
+        <v>-0.03738194376235521</v>
       </c>
       <c r="D71">
-        <v>0.2863552197944305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723925209344844</v>
+      </c>
+      <c r="E71">
+        <v>-0.09759992491993967</v>
+      </c>
+      <c r="F71">
+        <v>-0.004425666820451036</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1384531308272552</v>
+        <v>0.142845347740455</v>
       </c>
       <c r="C72">
-        <v>-0.02725525219374047</v>
+        <v>-0.02751394106955266</v>
       </c>
       <c r="D72">
-        <v>-0.001296533775282474</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004818084866374341</v>
+      </c>
+      <c r="E72">
+        <v>0.03586260302741355</v>
+      </c>
+      <c r="F72">
+        <v>-0.03053733409622854</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.206281269044002</v>
+        <v>0.2046047774482374</v>
       </c>
       <c r="C73">
-        <v>-0.01678050207210178</v>
+        <v>-0.01335055640089728</v>
       </c>
       <c r="D73">
-        <v>-0.01572289021928747</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0169207093304838</v>
+      </c>
+      <c r="E73">
+        <v>0.06360267740465386</v>
+      </c>
+      <c r="F73">
+        <v>-0.03957098706355219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09305790556108293</v>
+        <v>0.0954957889450954</v>
       </c>
       <c r="C74">
-        <v>-0.01342859251761968</v>
+        <v>-0.01370508976697776</v>
       </c>
       <c r="D74">
-        <v>-0.02207575594586068</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01563369467132146</v>
+      </c>
+      <c r="E74">
+        <v>0.0434575624084492</v>
+      </c>
+      <c r="F74">
+        <v>-0.05608176510650812</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1339760441745911</v>
+        <v>0.127668344058867</v>
       </c>
       <c r="C75">
-        <v>-0.02987345566311671</v>
+        <v>-0.0285795809470425</v>
       </c>
       <c r="D75">
-        <v>-0.0290094172581042</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02838918734966192</v>
+      </c>
+      <c r="E75">
+        <v>0.05642609488087849</v>
+      </c>
+      <c r="F75">
+        <v>-0.02203873315090525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08460853790138045</v>
+        <v>0.08933261095831231</v>
       </c>
       <c r="C77">
-        <v>-0.01566208818605854</v>
+        <v>-0.007996567501738286</v>
       </c>
       <c r="D77">
-        <v>-0.09439110523918903</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1141127332192713</v>
+      </c>
+      <c r="E77">
+        <v>0.04323994628401169</v>
+      </c>
+      <c r="F77">
+        <v>-0.0349882500069614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1046878715573591</v>
+        <v>0.1008221387249256</v>
       </c>
       <c r="C78">
-        <v>-0.04681411598790689</v>
+        <v>-0.03945460424673791</v>
       </c>
       <c r="D78">
-        <v>-0.09983413373706095</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1145157492516924</v>
+      </c>
+      <c r="E78">
+        <v>0.07569383975136341</v>
+      </c>
+      <c r="F78">
+        <v>-0.05117289526860314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1639236584045515</v>
+        <v>0.1639028266625827</v>
       </c>
       <c r="C79">
-        <v>-0.02376775103811164</v>
+        <v>-0.02335900810714098</v>
       </c>
       <c r="D79">
-        <v>-0.01517521519389204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01192415313792679</v>
+      </c>
+      <c r="E79">
+        <v>0.04419732543770569</v>
+      </c>
+      <c r="F79">
+        <v>-0.01168935695683603</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08618864299458792</v>
+        <v>0.08216234373147954</v>
       </c>
       <c r="C80">
-        <v>-0.001832299388367669</v>
+        <v>0.0006372796044909189</v>
       </c>
       <c r="D80">
-        <v>-0.04340754086510971</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05528705431481917</v>
+      </c>
+      <c r="E80">
+        <v>0.03535512429812934</v>
+      </c>
+      <c r="F80">
+        <v>0.01957037796410511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1202629610976158</v>
+        <v>0.1182189513513838</v>
       </c>
       <c r="C81">
-        <v>-0.03212421029721145</v>
+        <v>-0.03205342841217328</v>
       </c>
       <c r="D81">
-        <v>-0.02346374231334416</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01362700894189788</v>
+      </c>
+      <c r="E81">
+        <v>0.0548961451146758</v>
+      </c>
+      <c r="F81">
+        <v>-0.01956320246585211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1663828046160529</v>
+        <v>0.1662576987235412</v>
       </c>
       <c r="C82">
-        <v>-0.0244458584337601</v>
+        <v>-0.0255724497148577</v>
       </c>
       <c r="D82">
-        <v>-0.01447065794853672</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001267518551592837</v>
+      </c>
+      <c r="E82">
+        <v>0.02431016591303736</v>
+      </c>
+      <c r="F82">
+        <v>-0.08077251980588024</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06712446154963751</v>
+        <v>0.05875285792981247</v>
       </c>
       <c r="C83">
-        <v>-0.00635623973461927</v>
+        <v>-0.002997174944207187</v>
       </c>
       <c r="D83">
-        <v>-0.03404399093642293</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04949260884744818</v>
+      </c>
+      <c r="E83">
+        <v>0.00286406862535914</v>
+      </c>
+      <c r="F83">
+        <v>0.02920078020931565</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06498448290177486</v>
+        <v>0.05837810788762346</v>
       </c>
       <c r="C84">
-        <v>-0.01482626715307522</v>
+        <v>-0.01081395145303194</v>
       </c>
       <c r="D84">
-        <v>-0.06499849590418477</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07259558928027597</v>
+      </c>
+      <c r="E84">
+        <v>0.01444501692274995</v>
+      </c>
+      <c r="F84">
+        <v>-0.01417704915598844</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1369141933025108</v>
+        <v>0.135522212449757</v>
       </c>
       <c r="C85">
-        <v>-0.02821664549415656</v>
+        <v>-0.02853838072122462</v>
       </c>
       <c r="D85">
-        <v>-0.01831105294710776</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.008009654869825302</v>
+      </c>
+      <c r="E85">
+        <v>0.03515633715200441</v>
+      </c>
+      <c r="F85">
+        <v>-0.04672651082273499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.103752731045758</v>
+        <v>0.09321206132170672</v>
       </c>
       <c r="C86">
-        <v>0.001164891017272863</v>
+        <v>0.00638601148984795</v>
       </c>
       <c r="D86">
-        <v>0.009106736097291663</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05034151112298682</v>
+      </c>
+      <c r="E86">
+        <v>0.2431067038234379</v>
+      </c>
+      <c r="F86">
+        <v>0.9024882819726056</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1009778602102217</v>
+        <v>0.09435376070766202</v>
       </c>
       <c r="C87">
-        <v>-0.02907997607529485</v>
+        <v>-0.01932336410995486</v>
       </c>
       <c r="D87">
-        <v>-0.0652789593704491</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09460787221671831</v>
+      </c>
+      <c r="E87">
+        <v>-0.05284036807288862</v>
+      </c>
+      <c r="F87">
+        <v>-0.04797598985503643</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06116166860587571</v>
+        <v>0.06052050700028298</v>
       </c>
       <c r="C88">
-        <v>-0.005274764476104328</v>
+        <v>-0.002297288930920034</v>
       </c>
       <c r="D88">
-        <v>-0.05436274902539216</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04949000439969163</v>
+      </c>
+      <c r="E88">
+        <v>0.02400933399302499</v>
+      </c>
+      <c r="F88">
+        <v>-0.01528243660091541</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1160532638403751</v>
+        <v>0.1270064059711064</v>
       </c>
       <c r="C89">
-        <v>-0.001562318284416086</v>
+        <v>-0.01288065735454917</v>
       </c>
       <c r="D89">
-        <v>0.2606724559976665</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2436467899863866</v>
+      </c>
+      <c r="E89">
+        <v>-0.08930577590787403</v>
+      </c>
+      <c r="F89">
+        <v>0.01196574182959124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1328216187847198</v>
+        <v>0.1503415012795491</v>
       </c>
       <c r="C90">
-        <v>-0.02099366926796636</v>
+        <v>-0.03407688942733945</v>
       </c>
       <c r="D90">
-        <v>0.2742715165691627</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2700966550274608</v>
+      </c>
+      <c r="E90">
+        <v>-0.1137969360247422</v>
+      </c>
+      <c r="F90">
+        <v>0.01242267849578896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1200972284313053</v>
+        <v>0.1215968469802089</v>
       </c>
       <c r="C91">
-        <v>-0.01904384434615886</v>
+        <v>-0.02025640532802133</v>
       </c>
       <c r="D91">
-        <v>0.008316748593239299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01686589527631776</v>
+      </c>
+      <c r="E91">
+        <v>0.05435966733420876</v>
+      </c>
+      <c r="F91">
+        <v>0.00090982299806553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1370580201383373</v>
+        <v>0.1467955425544621</v>
       </c>
       <c r="C92">
-        <v>-0.01087713287351595</v>
+        <v>-0.02458255287420387</v>
       </c>
       <c r="D92">
-        <v>0.3090200708407277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2905204893414651</v>
+      </c>
+      <c r="E92">
+        <v>-0.1015336532624779</v>
+      </c>
+      <c r="F92">
+        <v>0.02097538539861396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1364009850705695</v>
+        <v>0.1507255273944914</v>
       </c>
       <c r="C93">
-        <v>-0.01645535898577613</v>
+        <v>-0.02893789669487536</v>
       </c>
       <c r="D93">
-        <v>0.2695497817282349</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2653335344094462</v>
+      </c>
+      <c r="E93">
+        <v>-0.07618748121310505</v>
+      </c>
+      <c r="F93">
+        <v>0.002048025623223585</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1349848100962026</v>
+        <v>0.1284203908420841</v>
       </c>
       <c r="C94">
-        <v>-0.02699958244372531</v>
+        <v>-0.02505596736001559</v>
       </c>
       <c r="D94">
-        <v>-0.04316510117088763</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04013621110897706</v>
+      </c>
+      <c r="E94">
+        <v>0.05644373661030279</v>
+      </c>
+      <c r="F94">
+        <v>-0.03516367632941629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1262202402837002</v>
+        <v>0.1257695871563916</v>
       </c>
       <c r="C95">
-        <v>-0.01065457237256762</v>
+        <v>-0.003229124104235998</v>
       </c>
       <c r="D95">
-        <v>-0.07618409177584733</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09808510702880371</v>
+      </c>
+      <c r="E95">
+        <v>0.05309444012746816</v>
+      </c>
+      <c r="F95">
+        <v>0.005798471999582494</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1173952136994477</v>
+        <v>0.1106039975191452</v>
       </c>
       <c r="C96">
-        <v>0.9873021831811644</v>
+        <v>0.9869466249768063</v>
       </c>
       <c r="D96">
-        <v>0.008223296081072544</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05131258203212703</v>
+      </c>
+      <c r="E96">
+        <v>0.05236261641665968</v>
+      </c>
+      <c r="F96">
+        <v>-0.04316461197182865</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1918853581389945</v>
+        <v>0.1921196754354386</v>
       </c>
       <c r="C97">
-        <v>0.006401597459009496</v>
+        <v>0.006450381592144543</v>
       </c>
       <c r="D97">
-        <v>0.01439897384404109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02077151613801165</v>
+      </c>
+      <c r="E97">
+        <v>0.02069525549800345</v>
+      </c>
+      <c r="F97">
+        <v>0.09154424339018509</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1999989905993444</v>
+        <v>0.2062647414955638</v>
       </c>
       <c r="C98">
-        <v>-0.0106479070469243</v>
+        <v>-0.007237570324849548</v>
       </c>
       <c r="D98">
-        <v>-0.01293343551776806</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01346090085053573</v>
+      </c>
+      <c r="E98">
+        <v>-0.07489390822727039</v>
+      </c>
+      <c r="F98">
+        <v>0.09208625696195799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05665635690030396</v>
+        <v>0.05485784500622831</v>
       </c>
       <c r="C99">
-        <v>0.002044313267580063</v>
+        <v>0.004385420403083514</v>
       </c>
       <c r="D99">
-        <v>-0.02295751025405039</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03834308991559899</v>
+      </c>
+      <c r="E99">
+        <v>0.02123074137170812</v>
+      </c>
+      <c r="F99">
+        <v>-0.003609907637943525</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1413377642086686</v>
+        <v>0.1286357047772834</v>
       </c>
       <c r="C100">
-        <v>0.03736987614742574</v>
+        <v>0.05303594857078629</v>
       </c>
       <c r="D100">
-        <v>-0.4256914107887936</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.349849046631413</v>
+      </c>
+      <c r="E100">
+        <v>-0.8828014147387353</v>
+      </c>
+      <c r="F100">
+        <v>0.169064532063968</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02615526159759304</v>
+        <v>0.02883608425588508</v>
       </c>
       <c r="C101">
-        <v>-0.01000531418388116</v>
+        <v>-0.008800714609044471</v>
       </c>
       <c r="D101">
-        <v>-0.02048747773596197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03093121607838568</v>
+      </c>
+      <c r="E101">
+        <v>0.01343067160373311</v>
+      </c>
+      <c r="F101">
+        <v>0.01365860931466648</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
